--- a/results/Significance.xlsx
+++ b/results/Significance.xlsx
@@ -8,24 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Keim\Projects\Repos\ArDoCo\ReplicationPackageICSE24\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1D2446-35D9-406F-84B7-AEEC2CE91987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618C3A58-B29F-4280-9EA6-81B5A6BDB3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Calculation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>vs TAROT</t>
   </si>
@@ -43,12 +55,28 @@
   </si>
   <si>
     <t>p-value calculated with Student t-test</t>
+  </si>
+  <si>
+    <t>Ours</t>
+  </si>
+  <si>
+    <t>TAROT</t>
+  </si>
+  <si>
+    <t>FTLR</t>
+  </si>
+  <si>
+    <t>T-Test:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,9 +114,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -383,10 +413,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -408,28 +441,34 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>6.0000000000000002E-6</v>
+      <c r="B3" s="3">
+        <f>Calculation!B11</f>
+        <v>1.312205223244844E-4</v>
       </c>
       <c r="C3">
-        <v>3.0173999999999999E-2</v>
+        <f>Calculation!F11</f>
+        <v>2.2085771292001771E-2</v>
       </c>
       <c r="D3">
-        <v>4.6999999999999997E-5</v>
+        <f>Calculation!J11</f>
+        <v>1.4587838291274305E-4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>7.9999999999999996E-6</v>
+      <c r="B4" s="3">
+        <f>Calculation!C11</f>
+        <v>5.3135891230374506E-5</v>
       </c>
       <c r="C4">
-        <v>2.1541999999999999E-2</v>
-      </c>
-      <c r="D4">
-        <v>4.6999999999999997E-5</v>
+        <f>Calculation!G11</f>
+        <v>8.3072033224059535E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <f>Calculation!K11</f>
+        <v>3.2965542415963243E-4</v>
       </c>
     </row>
   </sheetData>
@@ -441,4 +480,239 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F3B7E4-703C-4773-B740-75D743C942E5}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.09</v>
+      </c>
+      <c r="C3">
+        <v>0.19</v>
+      </c>
+      <c r="E3">
+        <v>0.52</v>
+      </c>
+      <c r="F3">
+        <v>0.24</v>
+      </c>
+      <c r="G3">
+        <v>0.26</v>
+      </c>
+      <c r="I3">
+        <v>0.68</v>
+      </c>
+      <c r="J3">
+        <v>0.13</v>
+      </c>
+      <c r="K3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.19</v>
+      </c>
+      <c r="C4">
+        <v>0.19</v>
+      </c>
+      <c r="E4">
+        <v>0.71</v>
+      </c>
+      <c r="F4">
+        <v>0.44</v>
+      </c>
+      <c r="G4">
+        <v>0.26</v>
+      </c>
+      <c r="I4">
+        <v>0.83</v>
+      </c>
+      <c r="J4">
+        <v>0.27</v>
+      </c>
+      <c r="K4">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.71</v>
+      </c>
+      <c r="B5">
+        <v>0.06</v>
+      </c>
+      <c r="C5">
+        <v>0.06</v>
+      </c>
+      <c r="E5">
+        <v>0.91</v>
+      </c>
+      <c r="F5">
+        <v>0.32</v>
+      </c>
+      <c r="G5">
+        <v>0.3</v>
+      </c>
+      <c r="I5">
+        <v>0.8</v>
+      </c>
+      <c r="J5">
+        <v>0.11</v>
+      </c>
+      <c r="K5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.77</v>
+      </c>
+      <c r="B6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.04</v>
+      </c>
+      <c r="E6">
+        <v>0.91</v>
+      </c>
+      <c r="F6">
+        <v>0.18</v>
+      </c>
+      <c r="G6">
+        <v>0.45</v>
+      </c>
+      <c r="I6">
+        <v>0.84</v>
+      </c>
+      <c r="J6">
+        <v>0.1</v>
+      </c>
+      <c r="K6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.89</v>
+      </c>
+      <c r="B7">
+        <v>0.32</v>
+      </c>
+      <c r="C7">
+        <v>0.32</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.93</v>
+      </c>
+      <c r="I7">
+        <v>0.94</v>
+      </c>
+      <c r="J7">
+        <v>0.48</v>
+      </c>
+      <c r="K7">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <f>_xlfn.T.TEST($A3:$A7,B3:B7,1,1)</f>
+        <v>1.312205223244844E-4</v>
+      </c>
+      <c r="C11" s="3">
+        <f>_xlfn.T.TEST($A3:$A7,C3:C7,1,1)</f>
+        <v>5.3135891230374506E-5</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3">
+        <f>_xlfn.T.TEST($E3:$E7,F3:F7,1,1)</f>
+        <v>2.2085771292001771E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <f>_xlfn.T.TEST($E3:$E7,G3:G7,1,1)</f>
+        <v>8.3072033224059535E-3</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
+        <f>_xlfn.T.TEST($I3:$I7,J3:J7,1,1)</f>
+        <v>1.4587838291274305E-4</v>
+      </c>
+      <c r="K11" s="3">
+        <f>_xlfn.T.TEST($I3:$I7,K3:K7,1,1)</f>
+        <v>3.2965542415963243E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/Significance.xlsx
+++ b/results/Significance.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Keim\Projects\Repos\ArDoCo\ReplicationPackageICSE24\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominik\Projects\Paper\2023\icse-2024\ReplicationPackageICSE24\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618C3A58-B29F-4280-9EA6-81B5A6BDB3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EFD434-0CC5-4D3C-9A2A-75CCEE335F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5050" yWindow="2370" windowWidth="28670" windowHeight="15320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
     <sheet name="Calculation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,8 +74,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -117,11 +117,11 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -412,21 +412,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -437,7 +437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -454,21 +454,21 @@
         <v>1.4587838291274305E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3">
         <f>Calculation!C11</f>
-        <v>5.3135891230374506E-5</v>
+        <v>7.3530037423618982E-5</v>
       </c>
       <c r="C4">
         <f>Calculation!G11</f>
-        <v>8.3072033224059535E-3</v>
+        <v>8.341459652997818E-3</v>
       </c>
       <c r="D4" s="2">
         <f>Calculation!K11</f>
-        <v>3.2965542415963243E-4</v>
+        <v>2.5754655008354039E-4</v>
       </c>
     </row>
   </sheetData>
@@ -486,16 +486,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F3B7E4-703C-4773-B740-75D743C942E5}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -506,7 +506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -535,7 +535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -543,7 +543,7 @@
         <v>0.09</v>
       </c>
       <c r="C3">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="E3">
         <v>0.52</v>
@@ -561,10 +561,10 @@
         <v>0.13</v>
       </c>
       <c r="K3">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -581,7 +581,7 @@
         <v>0.44</v>
       </c>
       <c r="G4">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I4">
         <v>0.83</v>
@@ -590,10 +590,10 @@
         <v>0.27</v>
       </c>
       <c r="K4">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.71</v>
       </c>
@@ -622,7 +622,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.77</v>
       </c>
@@ -639,7 +639,7 @@
         <v>0.18</v>
       </c>
       <c r="G6">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="I6">
         <v>0.84</v>
@@ -651,7 +651,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.89</v>
       </c>
@@ -680,7 +680,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -690,7 +690,7 @@
       </c>
       <c r="C11" s="3">
         <f>_xlfn.T.TEST($A3:$A7,C3:C7,1,1)</f>
-        <v>5.3135891230374506E-5</v>
+        <v>7.3530037423618982E-5</v>
       </c>
       <c r="D11" s="3"/>
       <c r="F11" s="3">
@@ -699,7 +699,7 @@
       </c>
       <c r="G11" s="3">
         <f>_xlfn.T.TEST($E3:$E7,G3:G7,1,1)</f>
-        <v>8.3072033224059535E-3</v>
+        <v>8.341459652997818E-3</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -709,7 +709,7 @@
       </c>
       <c r="K11" s="3">
         <f>_xlfn.T.TEST($I3:$I7,K3:K7,1,1)</f>
-        <v>3.2965542415963243E-4</v>
+        <v>2.5754655008354039E-4</v>
       </c>
     </row>
   </sheetData>

--- a/results/Significance.xlsx
+++ b/results/Significance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominik\Projects\Paper\2023\icse-2024\ReplicationPackageICSE24\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EFD434-0CC5-4D3C-9A2A-75CCEE335F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3069E63-4B4B-4716-BED0-1E0C623EE03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5050" yWindow="2370" windowWidth="28670" windowHeight="15320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="2010" windowWidth="28670" windowHeight="15320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>vs TAROT</t>
   </si>
@@ -54,9 +54,6 @@
     <t>F1</t>
   </si>
   <si>
-    <t>p-value calculated with Student t-test</t>
-  </si>
-  <si>
     <t>Ours</t>
   </si>
   <si>
@@ -66,7 +63,37 @@
     <t>FTLR</t>
   </si>
   <si>
-    <t>T-Test:</t>
+    <t>Wilcoxon Signed Rank Test (Right)</t>
+  </si>
+  <si>
+    <t>Ours - TAROT</t>
+  </si>
+  <si>
+    <t>Ours- FTLR</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>Wilcoxon Signed Rank Test (Right) - Overall (P,R)</t>
+  </si>
+  <si>
+    <t>Wilcoxon Signed Rank Test (Right) - Overall (P,R,F1)</t>
+  </si>
+  <si>
+    <t>p-value calculated with Wilcoxon Rank Sum Test</t>
   </si>
 </sst>
 </file>
@@ -74,8 +101,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="170" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -114,11 +141,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,17 +444,18 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -441,34 +473,34 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
-        <f>Calculation!B11</f>
-        <v>1.312205223244844E-4</v>
-      </c>
-      <c r="C3">
-        <f>Calculation!F11</f>
-        <v>2.2085771292001771E-2</v>
-      </c>
-      <c r="D3">
-        <f>Calculation!J11</f>
-        <v>1.4587838291274305E-4</v>
+      <c r="B3" s="4">
+        <f>Calculation!C11</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <f>Calculation!G11</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <f>Calculation!K11</f>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
-        <f>Calculation!C11</f>
-        <v>7.3530037423618982E-5</v>
-      </c>
-      <c r="C4">
-        <f>Calculation!G11</f>
-        <v>8.341459652997818E-3</v>
-      </c>
-      <c r="D4" s="2">
-        <f>Calculation!K11</f>
-        <v>2.5754655008354039E-4</v>
+      <c r="B4" s="4">
+        <f>Calculation!D11</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <f>Calculation!H11</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <f>Calculation!L11</f>
+        <v>3.125E-2</v>
       </c>
     </row>
   </sheetData>
@@ -484,235 +516,342 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F3B7E4-703C-4773-B740-75D743C942E5}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.09</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.15</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.52</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.24</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.26</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.68</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.13</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="O3">
+        <f>_xlfn.RANK.AVG(B3,$B$3:$C$7,1)</f>
+        <v>9.5</v>
+      </c>
+      <c r="P3">
+        <f>_xlfn.RANK.AVG(C3,$B$3:$C$7,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
         <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0.19</v>
       </c>
       <c r="C4">
         <v>0.19</v>
       </c>
-      <c r="E4">
+      <c r="D4">
+        <v>0.19</v>
+      </c>
+      <c r="F4">
         <v>0.71</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.44</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.25</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.83</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.27</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="O4">
+        <f t="shared" ref="O4:P7" si="0">_xlfn.RANK.AVG(B4,$B$3:$C$7,1)</f>
+        <v>9.5</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
         <v>0.71</v>
-      </c>
-      <c r="B5">
-        <v>0.06</v>
       </c>
       <c r="C5">
         <v>0.06</v>
       </c>
-      <c r="E5">
+      <c r="D5">
+        <v>0.06</v>
+      </c>
+      <c r="F5">
         <v>0.91</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.32</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.3</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.8</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.11</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
         <v>0.77</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.04</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.91</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.18</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.41</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.84</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.1</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
         <v>0.89</v>
-      </c>
-      <c r="B7">
-        <v>0.32</v>
       </c>
       <c r="C7">
         <v>0.32</v>
       </c>
-      <c r="E7">
-        <v>1</v>
+      <c r="D7">
+        <v>0.32</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>0.93</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.94</v>
-      </c>
-      <c r="J7">
-        <v>0.48</v>
       </c>
       <c r="K7">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="L7">
+        <v>0.48</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C11" s="4">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G11">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H11">
+        <v>3.125E-2</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4">
+        <v>3.125E-2</v>
+      </c>
+      <c r="L11">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <f>_xlfn.T.TEST($A3:$A7,B3:B7,1,1)</f>
-        <v>1.312205223244844E-4</v>
-      </c>
-      <c r="C11" s="3">
-        <f>_xlfn.T.TEST($A3:$A7,C3:C7,1,1)</f>
-        <v>7.3530037423618982E-5</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3">
-        <f>_xlfn.T.TEST($E3:$E7,F3:F7,1,1)</f>
-        <v>2.2085771292001771E-2</v>
-      </c>
-      <c r="G11" s="3">
-        <f>_xlfn.T.TEST($E3:$E7,G3:G7,1,1)</f>
-        <v>8.341459652997818E-3</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3">
-        <f>_xlfn.T.TEST($I3:$I7,J3:J7,1,1)</f>
-        <v>1.4587838291274305E-4</v>
-      </c>
-      <c r="K11" s="3">
-        <f>_xlfn.T.TEST($I3:$I7,K3:K7,1,1)</f>
-        <v>2.5754655008354039E-4</v>
+      <c r="C14">
+        <v>1.9530000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
+        <v>9.7659999999999999E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>6.1039999999999998E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>3.6240000000000003E-4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B17:E17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/Significance.xlsx
+++ b/results/Significance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominik\Projects\Paper\2023\icse-2024\ReplicationPackageICSE24\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Keim\Projects\Repos\ArDoCo\ReplicationPackageICSE24\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3069E63-4B4B-4716-BED0-1E0C623EE03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF75E89-D9DB-4A3D-A3CA-0A17E57CEFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="2010" windowWidth="28670" windowHeight="15320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8415" yWindow="1410" windowWidth="16410" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>vs TAROT</t>
   </si>
@@ -54,9 +54,6 @@
     <t>F1</t>
   </si>
   <si>
-    <t>Ours</t>
-  </si>
-  <si>
     <t>TAROT</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>Ours - TAROT</t>
   </si>
   <si>
-    <t>Ours- FTLR</t>
-  </si>
-  <si>
     <t>MS</t>
   </si>
   <si>
@@ -94,6 +88,27 @@
   </si>
   <si>
     <t>p-value calculated with Wilcoxon Rank Sum Test</t>
+  </si>
+  <si>
+    <t>TransArC</t>
+  </si>
+  <si>
+    <t>ArDoCo</t>
+  </si>
+  <si>
+    <t>Ours - FTLR</t>
+  </si>
+  <si>
+    <t>Ours - ArDoCo</t>
+  </si>
+  <si>
+    <t>vs ArDoCo</t>
+  </si>
+  <si>
+    <t>P+R</t>
+  </si>
+  <si>
+    <t>P+R+F1</t>
   </si>
 </sst>
 </file>
@@ -101,8 +116,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000000"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -144,17 +159,87 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -441,24 +526,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -468,8 +554,14 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -478,15 +570,23 @@
         <v>3.125E-2</v>
       </c>
       <c r="C3" s="4">
-        <f>Calculation!G11</f>
+        <f>Calculation!H11</f>
         <v>3.125E-2</v>
       </c>
       <c r="D3" s="4">
-        <f>Calculation!K11</f>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <f>Calculation!M11</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <f>Calculation!C14</f>
+        <v>1.9530000000000001E-3</v>
+      </c>
+      <c r="G3" s="4">
+        <f>Calculation!C19</f>
+        <v>6.1039999999999998E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -495,16 +595,84 @@
         <v>3.125E-2</v>
       </c>
       <c r="C4" s="4">
-        <f>Calculation!H11</f>
+        <f>Calculation!I11</f>
         <v>3.125E-2</v>
       </c>
       <c r="D4" s="4">
-        <f>Calculation!L11</f>
-        <v>3.125E-2</v>
+        <f>Calculation!N11</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <f>Calculation!C15</f>
+        <v>9.7659999999999999E-4</v>
+      </c>
+      <c r="G4" s="4">
+        <f>Calculation!C20</f>
+        <v>3.6240000000000003E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4">
+        <f>Calculation!E11</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <f>Calculation!J11</f>
+        <v>0.6875</v>
+      </c>
+      <c r="D5" s="4">
+        <f>Calculation!O11</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F5" s="4">
+        <f>Calculation!C16</f>
+        <v>2.734E-2</v>
+      </c>
+      <c r="G5" s="4">
+        <f>Calculation!C21</f>
+        <v>1.16E-3</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:D4">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:D5">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
@@ -516,61 +684,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F3B7E4-703C-4773-B740-75D743C942E5}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="3.5703125" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
       <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -581,36 +760,37 @@
       <c r="D3">
         <v>0.15</v>
       </c>
-      <c r="F3">
+      <c r="E3">
+        <v>0.05</v>
+      </c>
+      <c r="G3">
         <v>0.52</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.24</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.26</v>
       </c>
       <c r="J3">
+        <v>0.66</v>
+      </c>
+      <c r="L3">
         <v>0.68</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>0.13</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>0.19</v>
       </c>
       <c r="O3">
-        <f>_xlfn.RANK.AVG(B3,$B$3:$C$7,1)</f>
-        <v>9.5</v>
-      </c>
-      <c r="P3">
-        <f>_xlfn.RANK.AVG(C3,$B$3:$C$7,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -621,36 +801,37 @@
       <c r="D4">
         <v>0.19</v>
       </c>
-      <c r="F4">
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="G4">
         <v>0.71</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.44</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.25</v>
       </c>
       <c r="J4">
+        <v>0.74</v>
+      </c>
+      <c r="L4">
         <v>0.83</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>0.27</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.21</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:P7" si="0">_xlfn.RANK.AVG(B4,$B$3:$C$7,1)</f>
-        <v>9.5</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0.71</v>
@@ -661,36 +842,37 @@
       <c r="D5">
         <v>0.06</v>
       </c>
-      <c r="F5">
+      <c r="E5">
+        <v>0.35</v>
+      </c>
+      <c r="G5">
         <v>0.91</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.32</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.3</v>
       </c>
       <c r="J5">
+        <v>0.93</v>
+      </c>
+      <c r="L5">
         <v>0.8</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>0.11</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.1</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0.77</v>
@@ -701,36 +883,37 @@
       <c r="D6">
         <v>0.04</v>
       </c>
-      <c r="F6">
+      <c r="E6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G6">
         <v>0.91</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.18</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.41</v>
       </c>
       <c r="J6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L6">
         <v>0.84</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>0.1</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>0.89</v>
@@ -741,116 +924,141 @@
       <c r="D7">
         <v>0.32</v>
       </c>
-      <c r="F7">
-        <v>1</v>
+      <c r="E7">
+        <v>0.66</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>0.93</v>
       </c>
       <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>0.94</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>0.48</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>0.48</v>
       </c>
       <c r="O7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
         <v>3.125E-2</v>
       </c>
       <c r="D11" s="3">
         <v>3.125E-2</v>
       </c>
-      <c r="G11">
+      <c r="E11">
         <v>3.125E-2</v>
       </c>
       <c r="H11">
         <v>3.125E-2</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="4">
-        <v>3.125E-2</v>
-      </c>
-      <c r="L11">
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="I11">
+        <v>3.125E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.6875</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="4">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N11">
+        <v>3.125E-2</v>
+      </c>
+      <c r="O11">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
         <v>1.9530000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3">
         <v>9.7659999999999999E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2.734E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2">
         <v>6.1039999999999998E-5</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
         <v>3.6240000000000003E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.16E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/Significance.xlsx
+++ b/results/Significance.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Keim\Projects\Repos\ArDoCo\ReplicationPackageICSE24\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominik\Projects\Paper\2023\icse-2024\ReplicationPackageICSE24\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF75E89-D9DB-4A3D-A3CA-0A17E57CEFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A828CE1-D7C0-419C-B664-644FF6D8EA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8415" yWindow="1410" windowWidth="16410" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="2050" windowWidth="28670" windowHeight="15320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
     <sheet name="Calculation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,21 +66,6 @@
     <t>Ours - TAROT</t>
   </si>
   <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>TM</t>
-  </si>
-  <si>
-    <t>BBB</t>
-  </si>
-  <si>
-    <t>JR</t>
-  </si>
-  <si>
     <t>Wilcoxon Signed Rank Test (Right) - Overall (P,R)</t>
   </si>
   <si>
@@ -109,6 +94,21 @@
   </si>
   <si>
     <t>P+R+F1</t>
+  </si>
+  <si>
+    <t>BigBlueButton</t>
+  </si>
+  <si>
+    <t>JabRef</t>
+  </si>
+  <si>
+    <t>MediaStore</t>
+  </si>
+  <si>
+    <t>TEAMMATES</t>
+  </si>
+  <si>
+    <t>TeaStore</t>
   </si>
 </sst>
 </file>
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -165,71 +165,17 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -528,23 +474,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -555,13 +501,13 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -586,7 +532,7 @@
         <v>6.1039999999999998E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -611,9 +557,9 @@
         <v>3.6240000000000003E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4">
         <f>Calculation!E11</f>
@@ -633,46 +579,16 @@
       </c>
       <c r="G5" s="4">
         <f>Calculation!C21</f>
-        <v>1.16E-3</v>
+        <v>8.5450000000000001E-4</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:D4">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+  <conditionalFormatting sqref="B3:D5">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:D5">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="F3:G5">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
@@ -686,19 +602,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F3B7E4-703C-4773-B740-75D743C942E5}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="3.5703125" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="6" max="6" width="3.54296875" customWidth="1"/>
+    <col min="11" max="11" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -709,9 +625,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -720,10 +636,10 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
@@ -732,10 +648,10 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
         <v>5</v>
@@ -744,215 +660,225 @@
         <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="C3" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3.6450936633529503E-2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.41621621621621602</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="N3" s="8">
+        <v>6.7031463748289999E-2</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.32280819617064199</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.62</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.92985002418964702</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0.47924198977683602</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
         <v>0.09</v>
       </c>
-      <c r="D3">
-        <v>0.15</v>
-      </c>
-      <c r="E3">
+      <c r="D5" s="8">
+        <v>0.14942528735632199</v>
+      </c>
+      <c r="E5" s="8">
         <v>0.05</v>
       </c>
-      <c r="G3">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8">
         <v>0.52</v>
       </c>
-      <c r="H3">
+      <c r="H5" s="8">
         <v>0.24</v>
       </c>
-      <c r="I3">
+      <c r="I5" s="8">
         <v>0.26</v>
       </c>
-      <c r="J3">
+      <c r="J5" s="8">
         <v>0.66</v>
       </c>
-      <c r="L3">
+      <c r="K5" s="8"/>
+      <c r="L5" s="8">
         <v>0.68</v>
       </c>
-      <c r="M3">
+      <c r="M5" s="8">
         <v>0.13</v>
       </c>
-      <c r="N3">
+      <c r="N5" s="8">
+        <v>0.18978102189780999</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="D6" s="8">
+        <v>6.1139529821506299E-2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.29526938239159001</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0.10130291691087</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
         <v>0.19</v>
       </c>
-      <c r="O3">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0.19</v>
-      </c>
-      <c r="D4">
-        <v>0.19</v>
-      </c>
-      <c r="E4">
+      <c r="D7" s="8">
+        <v>0.18565400843881899</v>
+      </c>
+      <c r="E7" s="8">
         <v>0.2</v>
       </c>
-      <c r="G4">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8">
         <v>0.71</v>
       </c>
-      <c r="H4">
+      <c r="H7" s="8">
         <v>0.44</v>
       </c>
-      <c r="I4">
-        <v>0.25</v>
-      </c>
-      <c r="J4">
+      <c r="I7" s="8">
+        <v>0.24893917963224901</v>
+      </c>
+      <c r="J7" s="8">
         <v>0.74</v>
       </c>
-      <c r="L4">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8">
         <v>0.83</v>
       </c>
-      <c r="M4">
+      <c r="M7" s="8">
         <v>0.27</v>
       </c>
-      <c r="N4">
-        <v>0.21</v>
-      </c>
-      <c r="O4">
+      <c r="N7" s="8">
+        <v>0.212688821752266</v>
+      </c>
+      <c r="O7" s="8">
         <v>0.31</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0.71</v>
-      </c>
-      <c r="C5">
-        <v>0.06</v>
-      </c>
-      <c r="D5">
-        <v>0.06</v>
-      </c>
-      <c r="E5">
-        <v>0.35</v>
-      </c>
-      <c r="G5">
-        <v>0.91</v>
-      </c>
-      <c r="H5">
-        <v>0.32</v>
-      </c>
-      <c r="I5">
-        <v>0.3</v>
-      </c>
-      <c r="J5">
-        <v>0.93</v>
-      </c>
-      <c r="L5">
-        <v>0.8</v>
-      </c>
-      <c r="M5">
-        <v>0.11</v>
-      </c>
-      <c r="N5">
-        <v>0.1</v>
-      </c>
-      <c r="O5">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>0.77</v>
-      </c>
-      <c r="C6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D6">
-        <v>0.04</v>
-      </c>
-      <c r="E6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G6">
-        <v>0.91</v>
-      </c>
-      <c r="H6">
-        <v>0.18</v>
-      </c>
-      <c r="I6">
-        <v>0.41</v>
-      </c>
-      <c r="J6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="L6">
-        <v>0.84</v>
-      </c>
-      <c r="M6">
-        <v>0.1</v>
-      </c>
-      <c r="N6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O6">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>0.89</v>
-      </c>
-      <c r="C7">
-        <v>0.32</v>
-      </c>
-      <c r="D7">
-        <v>0.32</v>
-      </c>
-      <c r="E7">
-        <v>0.66</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0.93</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.94</v>
-      </c>
-      <c r="M7">
-        <v>0.48</v>
-      </c>
-      <c r="N7">
-        <v>0.48</v>
-      </c>
-      <c r="O7">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -960,14 +886,14 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C11" s="4">
         <v>3.125E-2</v>
       </c>
       <c r="D11" s="3">
         <v>3.125E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="7">
         <v>3.125E-2</v>
       </c>
       <c r="H11">
@@ -986,19 +912,19 @@
       <c r="N11">
         <v>3.125E-2</v>
       </c>
-      <c r="O11">
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="6">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1006,31 +932,31 @@
         <v>1.9530000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3">
         <v>9.7659999999999999E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2">
         <v>2.734E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>8</v>
       </c>
@@ -1038,20 +964,20 @@
         <v>6.1039999999999998E-5</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>3.6240000000000003E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1.16E-3</v>
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>8.5450000000000001E-4</v>
       </c>
     </row>
   </sheetData>

--- a/results/Significance.xlsx
+++ b/results/Significance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominik\Projects\Paper\2023\icse-2024\ReplicationPackageICSE24\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A828CE1-D7C0-419C-B664-644FF6D8EA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA39924-F61E-4706-BB72-D4AF54ED754B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="2050" windowWidth="28670" windowHeight="15320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="7140" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -164,11 +164,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -600,10 +597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F3B7E4-703C-4773-B740-75D743C942E5}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -614,7 +611,7 @@
     <col min="11" max="11" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -625,7 +622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -663,237 +660,256 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>0.77</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="5">
         <v>3.6450936633529503E-2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
         <v>0.91</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="5">
         <v>0.18</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="5">
         <v>0.41621621621621602</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5">
         <v>0.84</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="5">
         <v>0.1</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="5">
         <v>6.7031463748289999E-2</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="5">
         <v>0.13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>0.89</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>0.32</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>0.32280819617064199</v>
       </c>
-      <c r="E4" s="8">
-        <v>0.62</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8">
+      <c r="E4" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
         <v>1</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="5">
         <v>0.92985002418964702</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="5">
         <v>1</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5">
         <v>0.94</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="5">
         <v>0.48</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="5">
         <v>0.47924198977683602</v>
       </c>
-      <c r="O4" s="8">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="O4" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>0.09</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.14942528735632199</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>0.05</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7">
         <v>0.52</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>0.24</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>0.26</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>0.66</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7">
         <v>0.68</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>0.13</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>0.18978102189780999</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>0.71</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>0.06</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>6.1139529821506299E-2</v>
       </c>
-      <c r="E6" s="8">
-        <v>0.36</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8">
+      <c r="E6" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7">
         <v>0.91</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>0.32</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>0.29526938239159001</v>
       </c>
-      <c r="J6" s="8">
-        <v>0.93</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8">
+      <c r="J6" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7">
         <v>0.8</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <v>0.11</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <v>0.10130291691087</v>
       </c>
-      <c r="O6" s="8">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="O6" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>0.19</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.18565400843881899</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>0.2</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7">
         <v>0.71</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>0.44</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>0.24893917963224901</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>0.74</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7">
         <v>0.83</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>0.27</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>0.212688821752266</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C11" s="4">
         <v>3.125E-2</v>
       </c>
       <c r="D11" s="3">
         <v>3.125E-2</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="3">
         <v>3.125E-2</v>
       </c>
       <c r="H11">
@@ -912,19 +928,19 @@
       <c r="N11">
         <v>3.125E-2</v>
       </c>
-      <c r="O11" s="6">
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
+      <c r="O11">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -932,7 +948,7 @@
         <v>1.9530000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -940,7 +956,7 @@
         <v>9.7659999999999999E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -949,12 +965,12 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" t="s">

--- a/results/Significance.xlsx
+++ b/results/Significance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominik\Projects\Paper\2023\icse-2024\ReplicationPackageICSE24\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Keim\Projects\Repos\ArDoCo\ReplicationPackageICSE24\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA39924-F61E-4706-BB72-D4AF54ED754B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EEAD08-1405-4B7D-91A9-BE17ACC2FD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="7140" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21795" yWindow="75" windowWidth="28800" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>vs TAROT</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>TeaStore</t>
+  </si>
+  <si>
+    <t>CodeBERT</t>
+  </si>
+  <si>
+    <t>Ours - CodeBERT</t>
   </si>
 </sst>
 </file>
@@ -156,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -166,11 +172,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -475,19 +479,19 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -504,7 +508,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -513,11 +517,11 @@
         <v>3.125E-2</v>
       </c>
       <c r="C3" s="4">
-        <f>Calculation!H11</f>
+        <f>Calculation!I11</f>
         <v>3.125E-2</v>
       </c>
       <c r="D3" s="4">
-        <f>Calculation!M11</f>
+        <f>Calculation!O11</f>
         <v>3.125E-2</v>
       </c>
       <c r="F3" s="4">
@@ -525,11 +529,11 @@
         <v>1.9530000000000001E-3</v>
       </c>
       <c r="G3" s="4">
-        <f>Calculation!C19</f>
+        <f>Calculation!C20</f>
         <v>6.1039999999999998E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -538,11 +542,11 @@
         <v>3.125E-2</v>
       </c>
       <c r="C4" s="4">
-        <f>Calculation!I11</f>
+        <f>Calculation!J11</f>
         <v>3.125E-2</v>
       </c>
       <c r="D4" s="4">
-        <f>Calculation!N11</f>
+        <f>Calculation!P11</f>
         <v>3.125E-2</v>
       </c>
       <c r="F4" s="4">
@@ -550,11 +554,11 @@
         <v>9.7659999999999999E-4</v>
       </c>
       <c r="G4" s="4">
-        <f>Calculation!C20</f>
+        <f>Calculation!C21</f>
         <v>3.6240000000000003E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -563,11 +567,11 @@
         <v>3.125E-2</v>
       </c>
       <c r="C5" s="4">
-        <f>Calculation!J11</f>
+        <f>Calculation!K11</f>
         <v>0.6875</v>
       </c>
       <c r="D5" s="4">
-        <f>Calculation!O11</f>
+        <f>Calculation!Q11</f>
         <v>3.125E-2</v>
       </c>
       <c r="F5" s="4">
@@ -575,7 +579,7 @@
         <v>2.734E-2</v>
       </c>
       <c r="G5" s="4">
-        <f>Calculation!C21</f>
+        <f>Calculation!C22</f>
         <v>8.5450000000000001E-4</v>
       </c>
     </row>
@@ -597,32 +601,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F3B7E4-703C-4773-B740-75D743C942E5}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="6" max="6" width="3.54296875" customWidth="1"/>
-    <col min="11" max="11" width="3.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -635,32 +639,41 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
       <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -676,34 +689,43 @@
       <c r="E3" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5">
+      <c r="F3" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5">
         <v>0.91</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>0.18</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="5">
         <v>0.41621621621621602</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K3" s="5"/>
       <c r="L3" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5">
         <v>0.84</v>
       </c>
-      <c r="M3" s="5">
+      <c r="O3" s="5">
         <v>0.1</v>
       </c>
-      <c r="N3" s="5">
+      <c r="P3" s="5">
         <v>6.7031463748289999E-2</v>
       </c>
-      <c r="O3" s="5">
+      <c r="Q3" s="5">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R3" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -719,182 +741,199 @@
       <c r="E4" s="5">
         <v>0.66</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
+      <c r="F4" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="G4" s="5"/>
       <c r="H4" s="5">
         <v>1</v>
       </c>
       <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
         <v>0.92985002418964702</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>1</v>
       </c>
-      <c r="K4" s="5"/>
       <c r="L4" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5">
         <v>0.94</v>
       </c>
-      <c r="M4" s="5">
+      <c r="O4" s="5">
         <v>0.48</v>
       </c>
-      <c r="N4" s="5">
+      <c r="P4" s="5">
         <v>0.47924198977683602</v>
       </c>
-      <c r="O4" s="5">
+      <c r="Q4" s="5">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R4" s="5">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>0.09</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>0.14942528735632199</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>0.05</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7">
+      <c r="F5" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5">
         <v>0.52</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="5">
         <v>0.24</v>
       </c>
-      <c r="I5" s="7">
+      <c r="J5" s="5">
         <v>0.26</v>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="5">
         <v>0.66</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7">
+      <c r="L5" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5">
         <v>0.68</v>
       </c>
-      <c r="M5" s="7">
+      <c r="O5" s="5">
         <v>0.13</v>
       </c>
-      <c r="N5" s="7">
+      <c r="P5" s="5">
         <v>0.18978102189780999</v>
       </c>
-      <c r="O5" s="7">
+      <c r="Q5" s="5">
         <v>0.09</v>
       </c>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R5" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="5">
         <v>0.71</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>0.06</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>6.1139529821506299E-2</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>0.37</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7">
+      <c r="F6" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
         <v>0.91</v>
       </c>
-      <c r="H6" s="7">
+      <c r="I6" s="5">
         <v>0.32</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J6" s="5">
         <v>0.29526938239159001</v>
       </c>
-      <c r="J6" s="7">
+      <c r="K6" s="5">
         <v>0.92</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7">
+      <c r="L6" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5">
         <v>0.8</v>
       </c>
-      <c r="M6" s="7">
+      <c r="O6" s="5">
         <v>0.11</v>
       </c>
-      <c r="N6" s="7">
+      <c r="P6" s="5">
         <v>0.10130291691087</v>
       </c>
-      <c r="O6" s="7">
+      <c r="Q6" s="5">
         <v>0.53</v>
       </c>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R6" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>0.19</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>0.18565400843881899</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>0.2</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7">
+      <c r="F7" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5">
         <v>0.71</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="5">
         <v>0.44</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="5">
         <v>0.24893917963224901</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="5">
         <v>0.74</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7">
+      <c r="L7" s="5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5">
         <v>0.83</v>
       </c>
-      <c r="M7" s="7">
+      <c r="O7" s="5">
         <v>0.27</v>
       </c>
-      <c r="N7" s="7">
+      <c r="P7" s="5">
         <v>0.212688821752266</v>
       </c>
-      <c r="O7" s="7">
+      <c r="Q7" s="5">
         <v>0.31</v>
       </c>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R7" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
@@ -902,7 +941,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
         <v>3.125E-2</v>
       </c>
@@ -912,27 +951,36 @@
       <c r="E11" s="3">
         <v>3.125E-2</v>
       </c>
-      <c r="H11">
+      <c r="F11" s="4">
         <v>3.125E-2</v>
       </c>
       <c r="I11">
         <v>3.125E-2</v>
       </c>
       <c r="J11">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K11">
         <v>0.6875</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="4">
-        <v>3.125E-2</v>
-      </c>
-      <c r="N11">
-        <v>3.125E-2</v>
-      </c>
-      <c r="O11">
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L11">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="4">
+        <v>3.125E-2</v>
+      </c>
+      <c r="P11">
+        <v>3.125E-2</v>
+      </c>
+      <c r="Q11">
+        <v>3.125E-2</v>
+      </c>
+      <c r="R11">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
@@ -940,7 +988,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -948,7 +996,7 @@
         <v>1.9530000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -956,7 +1004,7 @@
         <v>9.7659999999999999E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -964,43 +1012,59 @@
         <v>2.734E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>2.9450000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2">
         <v>6.1039999999999998E-5</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>14</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>3.6240000000000003E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>8.5450000000000001E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>3.6240000000000003E-4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
